--- a/add_shelter_length.xlsx
+++ b/add_shelter_length.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulineyue/Desktop/5YMIDS/203-Stats/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hannah/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F8EB4C-8D84-854D-A277-562A6C1ECFD3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A80C50F-21E9-6043-B5A5-152F409C0EA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26020" windowHeight="13540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33700" yWindow="-2280" windowWidth="26020" windowHeight="13540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Infromation" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="119">
   <si>
     <t>Variables</t>
   </si>
@@ -307,16 +310,85 @@
     <t>Suggested citation: Raifman J, Nocka K, Jones D, Bor J, Lipson S, Jay J, and Chan P. (2020). "COVID-19 US state policy database." Available at: https://tinyurl.com/statepolicysources</t>
   </si>
   <si>
-    <t>Political Party of Governor</t>
-  </si>
-  <si>
     <t>Republican</t>
   </si>
   <si>
     <t>Democratic</t>
   </si>
   <si>
-    <t xml:space="preserve">Length of Shelter in Place (Putting in 7/2/20 as End Date if there is 0)  </t>
+    <t>total_cases</t>
+  </si>
+  <si>
+    <t>total_death</t>
+  </si>
+  <si>
+    <t>death_100k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cases_last_7days </t>
+  </si>
+  <si>
+    <t>total_test_results</t>
+  </si>
+  <si>
+    <t>state_of_emergency</t>
+  </si>
+  <si>
+    <t>rate_per_100k</t>
+  </si>
+  <si>
+    <t>stay_ at_ home_ shelter_in_ place</t>
+  </si>
+  <si>
+    <t>end_relax_stay_at_home_shelter_in_place</t>
+  </si>
+  <si>
+    <t>length_ shelter_in_place</t>
+  </si>
+  <si>
+    <t>closed_nonessential_businesses</t>
+  </si>
+  <si>
+    <t>began_reopen_businesses_statewide</t>
+  </si>
+  <si>
+    <t>mandate_facemask_use_ employees _ public</t>
+  </si>
+  <si>
+    <t>population_2018</t>
+  </si>
+  <si>
+    <t>percent_living_under_ fed_poverty_line_2018</t>
+  </si>
+  <si>
+    <t>all-cause deaths 2018</t>
+  </si>
+  <si>
+    <t>percent_ risk_ serious_ illness_due_to_covid</t>
+  </si>
+  <si>
+    <t>children_0_18</t>
+  </si>
+  <si>
+    <t>adults_19_25</t>
+  </si>
+  <si>
+    <t>adults_26_34</t>
+  </si>
+  <si>
+    <t>adults_35_54</t>
+  </si>
+  <si>
+    <t>adults_55_64</t>
+  </si>
+  <si>
+    <t>political_party_governor</t>
+  </si>
+  <si>
+    <t>weekly_unemployment_insurance_max</t>
+  </si>
+  <si>
+    <t>population_density_per_sq_mi</t>
   </si>
 </sst>
 </file>
@@ -913,6 +985,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -940,8 +1014,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1299,8 +1371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1328,16 +1400,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="40.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="25">
         <v>44014</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -1348,138 +1420,138 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="21"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="7"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="7"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="21"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="7"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="21"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="7"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="21"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="7"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="100.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="21"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="7"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="7"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="21"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="7"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="21"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="7"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="21"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="7"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="21"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="7"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1495,16 +1567,16 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="27" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="24">
         <v>2018</v>
       </c>
       <c r="E15" s="7"/>
@@ -1513,60 +1585,60 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="7"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="7"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="7"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="7"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="7"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1582,16 +1654,16 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="28" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="23">
         <v>44018</v>
       </c>
       <c r="E22" s="19"/>
@@ -1600,55 +1672,55 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="26"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="21"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="19"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="26"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="21"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="19"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="26"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="21"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="19"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="26"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="21"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="19"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="20" t="s">
         <v>89</v>
       </c>
@@ -1687,8 +1759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A0C22F-99C9-4ECF-A142-1CF4E60FA6D9}">
   <dimension ref="A1:AA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1706,82 +1778,82 @@
         <v>35</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="U1" s="9" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="W1" s="9" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="X1" s="9" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="Y1" s="9" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="Z1" s="9" t="s">
         <v>26</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -1815,7 +1887,7 @@
       <c r="J2" s="13">
         <v>43951</v>
       </c>
-      <c r="K2" s="30">
+      <c r="K2" s="21">
         <f>_xlfn.DAYS(J2,I2)</f>
         <v>26</v>
       </c>
@@ -1865,7 +1937,7 @@
         <v>0.17</v>
       </c>
       <c r="AA2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -1899,7 +1971,7 @@
       <c r="J3" s="13">
         <v>43945</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3" s="21">
         <f t="shared" ref="K3:K53" si="0">_xlfn.DAYS(J3,I3)</f>
         <v>27</v>
       </c>
@@ -1949,7 +2021,7 @@
         <v>0.12</v>
       </c>
       <c r="AA3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -1983,7 +2055,7 @@
       <c r="J4" s="13">
         <v>43967</v>
       </c>
-      <c r="K4" s="30">
+      <c r="K4" s="21">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
@@ -2033,7 +2105,7 @@
         <v>0.18</v>
       </c>
       <c r="AA4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -2067,7 +2139,7 @@
       <c r="J5" s="13">
         <v>43967</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="21">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
@@ -2117,7 +2189,7 @@
         <v>0.18</v>
       </c>
       <c r="AA5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -2151,7 +2223,7 @@
       <c r="J6" s="14">
         <v>0</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K6" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2201,7 +2273,7 @@
         <v>0.17</v>
       </c>
       <c r="AA6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="20" x14ac:dyDescent="0.2">
@@ -2235,7 +2307,7 @@
       <c r="J7" s="14">
         <v>0</v>
       </c>
-      <c r="K7" s="31">
+      <c r="K7" s="22">
         <f>_xlfn.DAYS("7/2/2020","3/19/20")</f>
         <v>105</v>
       </c>
@@ -2285,7 +2357,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AA7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -2319,7 +2391,7 @@
       <c r="J8" s="13">
         <v>43948</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K8" s="21">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
@@ -2369,7 +2441,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AA8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -2403,7 +2475,7 @@
       <c r="J9" s="14">
         <v>0</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2453,7 +2525,7 @@
         <v>0.17</v>
       </c>
       <c r="AA9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -2487,7 +2559,7 @@
       <c r="J10" s="13">
         <v>43983</v>
       </c>
-      <c r="K10" s="30">
+      <c r="K10" s="21">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
@@ -2537,7 +2609,7 @@
         <v>0.19</v>
       </c>
       <c r="AA10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -2571,7 +2643,7 @@
       <c r="J11" s="13">
         <v>43980</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="21">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
@@ -2621,7 +2693,7 @@
         <v>0.12</v>
       </c>
       <c r="AA11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -2655,7 +2727,7 @@
       <c r="J12" s="13">
         <v>43969</v>
       </c>
-      <c r="K12" s="30">
+      <c r="K12" s="21">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -2705,7 +2777,7 @@
         <v>0.21</v>
       </c>
       <c r="AA12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -2739,7 +2811,7 @@
       <c r="J13" s="13">
         <v>43952</v>
       </c>
-      <c r="K13" s="30">
+      <c r="K13" s="21">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -2789,7 +2861,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AA13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -2823,7 +2895,7 @@
       <c r="J14" s="14">
         <v>0</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K14" s="21">
         <f>_xlfn.DAYS("7/2/20", "3/25/20")</f>
         <v>99</v>
       </c>
@@ -2873,7 +2945,7 @@
         <v>0.19</v>
       </c>
       <c r="AA14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -2907,7 +2979,7 @@
       <c r="J15" s="13">
         <v>43952</v>
       </c>
-      <c r="K15" s="30">
+      <c r="K15" s="21">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
@@ -2957,7 +3029,7 @@
         <v>0.16</v>
       </c>
       <c r="AA15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -2991,7 +3063,7 @@
       <c r="J16" s="13">
         <v>43980</v>
       </c>
-      <c r="K16" s="30">
+      <c r="K16" s="21">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
@@ -3041,7 +3113,7 @@
         <v>0.15</v>
       </c>
       <c r="AA16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -3075,7 +3147,7 @@
       <c r="J17" s="13">
         <v>43969</v>
       </c>
-      <c r="K17" s="30">
+      <c r="K17" s="21">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
@@ -3125,7 +3197,7 @@
         <v>0.16</v>
       </c>
       <c r="AA17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -3159,7 +3231,7 @@
       <c r="J18" s="14">
         <v>0</v>
       </c>
-      <c r="K18" s="30">
+      <c r="K18" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3209,7 +3281,7 @@
         <v>0.17</v>
       </c>
       <c r="AA18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -3243,7 +3315,7 @@
       <c r="J19" s="13">
         <v>43955</v>
       </c>
-      <c r="K19" s="30">
+      <c r="K19" s="21">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -3293,7 +3365,7 @@
         <v>0.16</v>
       </c>
       <c r="AA19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -3324,7 +3396,7 @@
       <c r="J20" s="14">
         <v>0</v>
       </c>
-      <c r="K20" s="30">
+      <c r="K20" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3374,7 +3446,7 @@
         <v>0.16</v>
       </c>
       <c r="AA20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -3408,7 +3480,7 @@
       <c r="J21" s="13">
         <v>43966</v>
       </c>
-      <c r="K21" s="30">
+      <c r="K21" s="21">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
@@ -3458,7 +3530,7 @@
         <v>0.15</v>
       </c>
       <c r="AA21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -3492,7 +3564,7 @@
       <c r="J22" s="13">
         <v>43982</v>
       </c>
-      <c r="K22" s="30">
+      <c r="K22" s="21">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -3542,7 +3614,7 @@
         <v>0.21</v>
       </c>
       <c r="AA22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -3576,7 +3648,7 @@
       <c r="J23" s="13">
         <v>43966</v>
       </c>
-      <c r="K23" s="30">
+      <c r="K23" s="21">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
@@ -3626,7 +3698,7 @@
         <v>0.15</v>
       </c>
       <c r="AA23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -3660,7 +3732,7 @@
       <c r="J24" s="13">
         <v>43969</v>
       </c>
-      <c r="K24" s="30">
+      <c r="K24" s="21">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
@@ -3710,7 +3782,7 @@
         <v>0.17</v>
       </c>
       <c r="AA24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -3744,7 +3816,7 @@
       <c r="J25" s="13">
         <v>43983</v>
       </c>
-      <c r="K25" s="30">
+      <c r="K25" s="21">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
@@ -3794,7 +3866,7 @@
         <v>0.17</v>
       </c>
       <c r="AA25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -3828,7 +3900,7 @@
       <c r="J26" s="13">
         <v>43969</v>
       </c>
-      <c r="K26" s="30">
+      <c r="K26" s="21">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
@@ -3878,7 +3950,7 @@
         <v>0.16</v>
       </c>
       <c r="AA26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -3912,7 +3984,7 @@
       <c r="J27" s="13">
         <v>43948</v>
       </c>
-      <c r="K27" s="30">
+      <c r="K27" s="21">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -3962,7 +4034,7 @@
         <v>0.16</v>
       </c>
       <c r="AA27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -3996,7 +4068,7 @@
       <c r="J28" s="13">
         <v>43955</v>
       </c>
-      <c r="K28" s="30">
+      <c r="K28" s="21">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -4046,7 +4118,7 @@
         <v>0.17</v>
       </c>
       <c r="AA28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -4080,7 +4152,7 @@
       <c r="J29" s="13">
         <v>43947</v>
       </c>
-      <c r="K29" s="30">
+      <c r="K29" s="21">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
@@ -4130,7 +4202,7 @@
         <v>0.19</v>
       </c>
       <c r="AA29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -4164,7 +4236,7 @@
       <c r="J30" s="14">
         <v>0</v>
       </c>
-      <c r="K30" s="30">
+      <c r="K30" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4214,7 +4286,7 @@
         <v>0.16</v>
       </c>
       <c r="AA30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -4248,7 +4320,7 @@
       <c r="J31" s="13">
         <v>43960</v>
       </c>
-      <c r="K31" s="30">
+      <c r="K31" s="21">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
@@ -4298,7 +4370,7 @@
         <v>0.16</v>
       </c>
       <c r="AA31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -4332,7 +4404,7 @@
       <c r="J32" s="13">
         <v>43998</v>
       </c>
-      <c r="K32" s="30">
+      <c r="K32" s="21">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
@@ -4382,7 +4454,7 @@
         <v>0.18</v>
       </c>
       <c r="AA32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -4416,7 +4488,7 @@
       <c r="J33" s="11">
         <v>0</v>
       </c>
-      <c r="K33" s="30">
+      <c r="K33" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4466,7 +4538,7 @@
         <v>0.16</v>
       </c>
       <c r="AA33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -4500,7 +4572,7 @@
       <c r="J34" s="14">
         <v>0</v>
       </c>
-      <c r="K34" s="30">
+      <c r="K34" s="21">
         <f>_xlfn.DAYS("7/2/20",I34)</f>
         <v>100</v>
       </c>
@@ -4550,7 +4622,7 @@
         <v>0.18</v>
       </c>
       <c r="AA34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -4584,7 +4656,7 @@
       <c r="J35" s="14">
         <v>0</v>
       </c>
-      <c r="K35" s="30">
+      <c r="K35" s="21">
         <f>_xlfn.DAYS("7/2/20",I35)</f>
         <v>102</v>
       </c>
@@ -4634,7 +4706,7 @@
         <v>0.16</v>
       </c>
       <c r="AA35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -4668,7 +4740,7 @@
       <c r="J36" s="13">
         <v>43973</v>
       </c>
-      <c r="K36" s="30">
+      <c r="K36" s="21">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
@@ -4718,7 +4790,7 @@
         <v>0.16</v>
       </c>
       <c r="AA36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -4752,7 +4824,7 @@
       <c r="J37" s="14">
         <v>0</v>
       </c>
-      <c r="K37" s="30">
+      <c r="K37" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4802,7 +4874,7 @@
         <v>0.15</v>
       </c>
       <c r="AA37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -4836,7 +4908,7 @@
       <c r="J38" s="13">
         <v>43971</v>
       </c>
-      <c r="K38" s="30">
+      <c r="K38" s="21">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
@@ -4877,7 +4949,7 @@
         <v>0.17</v>
       </c>
       <c r="AA38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -4911,7 +4983,7 @@
       <c r="J39" s="14">
         <v>0</v>
       </c>
-      <c r="K39" s="30">
+      <c r="K39" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4961,7 +5033,7 @@
         <v>0.16</v>
       </c>
       <c r="AA39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -4995,7 +5067,7 @@
       <c r="J40" s="13">
         <v>44001</v>
       </c>
-      <c r="K40" s="30">
+      <c r="K40" s="21">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
@@ -5045,7 +5117,7 @@
         <v>0.18</v>
       </c>
       <c r="AA40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -5079,7 +5151,7 @@
       <c r="J41" s="13">
         <v>43987</v>
       </c>
-      <c r="K41" s="30">
+      <c r="K41" s="21">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
@@ -5129,7 +5201,7 @@
         <v>0.18</v>
       </c>
       <c r="AA41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -5163,7 +5235,7 @@
       <c r="J42" s="13">
         <v>43960</v>
       </c>
-      <c r="K42" s="30">
+      <c r="K42" s="21">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
@@ -5213,7 +5285,7 @@
         <v>0.17</v>
       </c>
       <c r="AA42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -5247,7 +5319,7 @@
       <c r="J43" s="13">
         <v>43955</v>
       </c>
-      <c r="K43" s="30">
+      <c r="K43" s="21">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -5297,7 +5369,7 @@
         <v>0.18</v>
       </c>
       <c r="AA43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -5331,7 +5403,7 @@
       <c r="J44" s="14">
         <v>0</v>
       </c>
-      <c r="K44" s="30">
+      <c r="K44" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5381,7 +5453,7 @@
         <v>0.16</v>
       </c>
       <c r="AA44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -5415,7 +5487,7 @@
       <c r="J45" s="13">
         <v>43952</v>
       </c>
-      <c r="K45" s="30">
+      <c r="K45" s="21">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
@@ -5465,7 +5537,7 @@
         <v>0.16</v>
       </c>
       <c r="AA45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -5499,7 +5571,7 @@
       <c r="J46" s="14">
         <v>0</v>
       </c>
-      <c r="K46" s="30">
+      <c r="K46" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5549,7 +5621,7 @@
         <v>0.13</v>
       </c>
       <c r="AA46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -5583,7 +5655,7 @@
       <c r="J47" s="14">
         <v>0</v>
       </c>
-      <c r="K47" s="30">
+      <c r="K47" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5633,7 +5705,7 @@
         <v>0.11</v>
       </c>
       <c r="AA47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -5667,7 +5739,7 @@
       <c r="J48" s="13">
         <v>43966</v>
       </c>
-      <c r="K48" s="30">
+      <c r="K48" s="21">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
@@ -5717,7 +5789,7 @@
         <v>0.2</v>
       </c>
       <c r="AA48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -5751,7 +5823,7 @@
       <c r="J49" s="13">
         <v>43980</v>
       </c>
-      <c r="K49" s="30">
+      <c r="K49" s="21">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -5801,7 +5873,7 @@
         <v>0.16</v>
       </c>
       <c r="AA49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -5835,7 +5907,7 @@
       <c r="J50" s="13">
         <v>43983</v>
       </c>
-      <c r="K50" s="30">
+      <c r="K50" s="21">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -5885,7 +5957,7 @@
         <v>0.16</v>
       </c>
       <c r="AA50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -5919,7 +5991,7 @@
       <c r="J51" s="13">
         <v>43955</v>
       </c>
-      <c r="K51" s="30">
+      <c r="K51" s="21">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -5969,7 +6041,7 @@
         <v>0.2</v>
       </c>
       <c r="AA51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -6003,7 +6075,7 @@
       <c r="J52" s="13">
         <v>43964</v>
       </c>
-      <c r="K52" s="30">
+      <c r="K52" s="21">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
@@ -6053,7 +6125,7 @@
         <v>0.17</v>
       </c>
       <c r="AA52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -6087,7 +6159,7 @@
       <c r="J53" s="14">
         <v>0</v>
       </c>
-      <c r="K53" s="30">
+      <c r="K53" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6137,7 +6209,7 @@
         <v>0.17</v>
       </c>
       <c r="AA53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
